--- a/schedule/schedule_N-03_C-updated_I-023.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-023.xlsx
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:69">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -933,8 +933,11 @@
       <c r="BP1" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:68">
+      <c r="BQ1" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:69">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,11 +1084,11 @@
       <c r="BO3" t="s">
         <v>72</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:69">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:69">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:69">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:69">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:69">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:69">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:69">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:69">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:69">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:69">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:69">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:69">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:69">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:69">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1889,23 +1892,23 @@
       <c r="BK17" t="s">
         <v>64</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>67</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>68</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>71</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
         <v>72</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:69">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:69">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:69">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:69">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:69">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:69">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:69">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:69">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:68">
+    <row r="27" spans="1:69">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:68">
+    <row r="28" spans="1:69">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:68">
+    <row r="29" spans="1:69">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:68">
+    <row r="30" spans="1:69">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:68">
+    <row r="31" spans="1:69">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:68">
+    <row r="32" spans="1:69">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
